--- a/SuRGE_Sharepoint/data/ADA/CH4_099_Lake Hamilton/dataSheets/surgeData099.xlsx
+++ b/SuRGE_Sharepoint/data/ADA/CH4_099_Lake Hamilton/dataSheets/surgeData099.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://usepa.sharepoint.com/sites/SuRGE/Shared Documents/data/ADA/CH4_099_Lake Hamilton/dataSheets/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://usepa-my.sharepoint.com/personal/beaulieu_jake_epa_gov/Documents/gitRepository/SuRGE/SuRGE_Sharepoint/data/ADA/CH4_099_Lake Hamilton/dataSheets/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="465" documentId="8_{4D6C2242-6AC3-46A8-BDE5-D7922AC5A564}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{07138FA5-92C3-42C4-9F7E-F7CD8B5CB4E9}"/>
+  <xr:revisionPtr revIDLastSave="466" documentId="8_{4D6C2242-6AC3-46A8-BDE5-D7922AC5A564}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{78F06AB7-390F-442C-80C9-05B9158F5C15}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1920" yWindow="1920" windowWidth="34560" windowHeight="13560" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="data" sheetId="1" r:id="rId1"/>
@@ -1323,9 +1323,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -1363,7 +1363,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -1469,7 +1469,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1611,7 +1611,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1621,79 +1621,79 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:BZ21"/>
   <sheetViews>
-    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <pane xSplit="2" topLeftCell="BL1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="AW20" sqref="AW20:BF20"/>
+      <selection pane="topRight" activeCell="BT15" sqref="BT15:BV15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="6.26953125" style="25" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="5.7265625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.54296875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.26953125" customWidth="1"/>
-    <col min="5" max="5" width="13.7265625" customWidth="1"/>
-    <col min="6" max="7" width="13.54296875" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="12.453125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="10.7265625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.54296875" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="9.453125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.7265625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="9.453125" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.7265625" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="9.453125" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.7265625" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="17.26953125" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="17.453125" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="16.7265625" bestFit="1" customWidth="1"/>
-    <col min="21" max="22" width="12.26953125" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="10.26953125" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="14.7265625" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="7.26953125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="6.21875" style="25" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="5.77734375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.5546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.21875" customWidth="1"/>
+    <col min="5" max="5" width="13.77734375" customWidth="1"/>
+    <col min="6" max="7" width="13.5546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="12.44140625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10.77734375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.5546875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="9.44140625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.77734375" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="9.44140625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.77734375" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="9.44140625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.77734375" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="17.21875" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="17.44140625" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="16.77734375" bestFit="1" customWidth="1"/>
+    <col min="21" max="22" width="12.21875" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="10.21875" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="14.77734375" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="7.21875" bestFit="1" customWidth="1"/>
     <col min="26" max="26" width="8" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="9.26953125" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="9.21875" bestFit="1" customWidth="1"/>
     <col min="28" max="28" width="5" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="6.26953125" customWidth="1"/>
-    <col min="30" max="30" width="10.26953125" customWidth="1"/>
-    <col min="31" max="31" width="6.26953125" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="10.26953125" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="6.21875" customWidth="1"/>
+    <col min="30" max="30" width="10.21875" customWidth="1"/>
+    <col min="31" max="31" width="6.21875" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="10.21875" bestFit="1" customWidth="1"/>
     <col min="33" max="33" width="11" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="12.26953125" bestFit="1" customWidth="1"/>
-    <col min="35" max="35" width="7.7265625" bestFit="1" customWidth="1"/>
-    <col min="36" max="37" width="9.26953125" bestFit="1" customWidth="1"/>
-    <col min="38" max="38" width="16.26953125" bestFit="1" customWidth="1"/>
-    <col min="39" max="39" width="15.7265625" bestFit="1" customWidth="1"/>
-    <col min="40" max="40" width="17.26953125" bestFit="1" customWidth="1"/>
-    <col min="41" max="41" width="12.7265625" bestFit="1" customWidth="1"/>
-    <col min="42" max="43" width="14.26953125" bestFit="1" customWidth="1"/>
-    <col min="44" max="44" width="13.7265625" bestFit="1" customWidth="1"/>
-    <col min="45" max="45" width="7.453125" bestFit="1" customWidth="1"/>
-    <col min="46" max="46" width="7.7265625" bestFit="1" customWidth="1"/>
-    <col min="47" max="47" width="8.7265625" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="12.21875" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="7.77734375" bestFit="1" customWidth="1"/>
+    <col min="36" max="37" width="9.21875" bestFit="1" customWidth="1"/>
+    <col min="38" max="38" width="16.21875" bestFit="1" customWidth="1"/>
+    <col min="39" max="39" width="15.77734375" bestFit="1" customWidth="1"/>
+    <col min="40" max="40" width="17.21875" bestFit="1" customWidth="1"/>
+    <col min="41" max="41" width="12.77734375" bestFit="1" customWidth="1"/>
+    <col min="42" max="43" width="14.21875" bestFit="1" customWidth="1"/>
+    <col min="44" max="44" width="13.77734375" bestFit="1" customWidth="1"/>
+    <col min="45" max="45" width="7.44140625" bestFit="1" customWidth="1"/>
+    <col min="46" max="46" width="7.77734375" bestFit="1" customWidth="1"/>
+    <col min="47" max="47" width="8.77734375" bestFit="1" customWidth="1"/>
     <col min="48" max="48" width="5" bestFit="1" customWidth="1"/>
-    <col min="49" max="49" width="5.7265625" bestFit="1" customWidth="1"/>
-    <col min="50" max="50" width="13.26953125" customWidth="1"/>
-    <col min="51" max="51" width="8.26953125" customWidth="1"/>
-    <col min="52" max="52" width="10.26953125" bestFit="1" customWidth="1"/>
-    <col min="53" max="53" width="11.26953125" bestFit="1" customWidth="1"/>
-    <col min="54" max="54" width="12.453125" bestFit="1" customWidth="1"/>
-    <col min="55" max="55" width="8.26953125" bestFit="1" customWidth="1"/>
-    <col min="56" max="57" width="9.453125" bestFit="1" customWidth="1"/>
-    <col min="58" max="58" width="15.26953125" bestFit="1" customWidth="1"/>
-    <col min="59" max="59" width="16.26953125" bestFit="1" customWidth="1"/>
-    <col min="60" max="60" width="17.453125" bestFit="1" customWidth="1"/>
-    <col min="61" max="61" width="12.7265625" bestFit="1" customWidth="1"/>
-    <col min="62" max="63" width="14.26953125" bestFit="1" customWidth="1"/>
-    <col min="64" max="64" width="23.26953125" customWidth="1"/>
-    <col min="65" max="65" width="14.81640625" customWidth="1"/>
-    <col min="66" max="66" width="8.7265625" bestFit="1" customWidth="1"/>
-    <col min="67" max="67" width="9.54296875" bestFit="1" customWidth="1"/>
-    <col min="68" max="68" width="9.26953125" bestFit="1" customWidth="1"/>
+    <col min="49" max="49" width="5.77734375" bestFit="1" customWidth="1"/>
+    <col min="50" max="50" width="13.21875" customWidth="1"/>
+    <col min="51" max="51" width="8.21875" customWidth="1"/>
+    <col min="52" max="52" width="10.21875" bestFit="1" customWidth="1"/>
+    <col min="53" max="53" width="11.21875" bestFit="1" customWidth="1"/>
+    <col min="54" max="54" width="12.44140625" bestFit="1" customWidth="1"/>
+    <col min="55" max="55" width="8.21875" bestFit="1" customWidth="1"/>
+    <col min="56" max="57" width="9.44140625" bestFit="1" customWidth="1"/>
+    <col min="58" max="58" width="15.21875" bestFit="1" customWidth="1"/>
+    <col min="59" max="59" width="16.21875" bestFit="1" customWidth="1"/>
+    <col min="60" max="60" width="17.44140625" bestFit="1" customWidth="1"/>
+    <col min="61" max="61" width="12.77734375" bestFit="1" customWidth="1"/>
+    <col min="62" max="63" width="14.21875" bestFit="1" customWidth="1"/>
+    <col min="64" max="64" width="23.21875" customWidth="1"/>
+    <col min="65" max="65" width="14.77734375" customWidth="1"/>
+    <col min="66" max="66" width="8.77734375" bestFit="1" customWidth="1"/>
+    <col min="67" max="67" width="9.5546875" bestFit="1" customWidth="1"/>
+    <col min="68" max="68" width="9.21875" bestFit="1" customWidth="1"/>
     <col min="69" max="69" width="18" bestFit="1" customWidth="1"/>
-    <col min="70" max="70" width="22.7265625" bestFit="1" customWidth="1"/>
+    <col min="70" max="70" width="22.77734375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:78" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:78" x14ac:dyDescent="0.3">
       <c r="A1" s="33" t="s">
         <v>0</v>
       </c>
@@ -1785,7 +1785,7 @@
       <c r="BY1" s="32"/>
       <c r="BZ1" s="32"/>
     </row>
-    <row r="2" spans="1:78" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:78" x14ac:dyDescent="0.3">
       <c r="A2" s="24" t="s">
         <v>6</v>
       </c>
@@ -2021,7 +2021,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="3" spans="1:78" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:78" x14ac:dyDescent="0.3">
       <c r="A3" s="25" t="s">
         <v>183</v>
       </c>
@@ -2109,15 +2109,6 @@
       <c r="BE3">
         <v>5.9</v>
       </c>
-      <c r="BT3" t="s">
-        <v>192</v>
-      </c>
-      <c r="BU3" t="s">
-        <v>194</v>
-      </c>
-      <c r="BV3" t="s">
-        <v>193</v>
-      </c>
       <c r="BW3">
         <v>2.0485000000000002</v>
       </c>
@@ -2131,7 +2122,7 @@
         <v>0.78555555555555545</v>
       </c>
     </row>
-    <row r="4" spans="1:78" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:78" x14ac:dyDescent="0.3">
       <c r="A4" s="25" t="s">
         <v>183</v>
       </c>
@@ -2220,7 +2211,7 @@
         <v>4.4000000000000004</v>
       </c>
     </row>
-    <row r="5" spans="1:78" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:78" x14ac:dyDescent="0.3">
       <c r="A5" s="25" t="s">
         <v>183</v>
       </c>
@@ -2309,7 +2300,7 @@
         <v>3.5</v>
       </c>
     </row>
-    <row r="6" spans="1:78" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:78" x14ac:dyDescent="0.3">
       <c r="A6" s="25" t="s">
         <v>183</v>
       </c>
@@ -2398,7 +2389,7 @@
         <v>3.2</v>
       </c>
     </row>
-    <row r="7" spans="1:78" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:78" x14ac:dyDescent="0.3">
       <c r="A7" s="25" t="s">
         <v>183</v>
       </c>
@@ -2487,7 +2478,7 @@
         <v>2.2999999999999998</v>
       </c>
     </row>
-    <row r="8" spans="1:78" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:78" x14ac:dyDescent="0.3">
       <c r="A8" s="25" t="s">
         <v>183</v>
       </c>
@@ -2576,7 +2567,7 @@
         <v>5.5</v>
       </c>
     </row>
-    <row r="9" spans="1:78" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:78" x14ac:dyDescent="0.3">
       <c r="A9" s="25" t="s">
         <v>183</v>
       </c>
@@ -2665,7 +2656,7 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="10" spans="1:78" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:78" x14ac:dyDescent="0.3">
       <c r="A10" s="25" t="s">
         <v>183</v>
       </c>
@@ -2763,7 +2754,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="11" spans="1:78" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:78" x14ac:dyDescent="0.3">
       <c r="A11" s="25" t="s">
         <v>183</v>
       </c>
@@ -2852,7 +2843,7 @@
         <v>5.0999999999999996</v>
       </c>
     </row>
-    <row r="12" spans="1:78" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:78" x14ac:dyDescent="0.3">
       <c r="A12" s="25" t="s">
         <v>183</v>
       </c>
@@ -2941,7 +2932,7 @@
         <v>2.2000000000000002</v>
       </c>
     </row>
-    <row r="13" spans="1:78" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:78" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="25" t="s">
         <v>183</v>
       </c>
@@ -3030,7 +3021,7 @@
         <v>4.4000000000000004</v>
       </c>
     </row>
-    <row r="14" spans="1:78" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:78" x14ac:dyDescent="0.3">
       <c r="A14" s="25" t="s">
         <v>183</v>
       </c>
@@ -3119,7 +3110,7 @@
         <v>2.6</v>
       </c>
     </row>
-    <row r="15" spans="1:78" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:78" x14ac:dyDescent="0.3">
       <c r="A15" s="25" t="s">
         <v>183</v>
       </c>
@@ -3210,8 +3201,17 @@
       <c r="BS15" t="s">
         <v>190</v>
       </c>
-    </row>
-    <row r="16" spans="1:78" x14ac:dyDescent="0.35">
+      <c r="BT15" t="s">
+        <v>192</v>
+      </c>
+      <c r="BU15" t="s">
+        <v>194</v>
+      </c>
+      <c r="BV15" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="16" spans="1:78" x14ac:dyDescent="0.3">
       <c r="A16" s="25" t="s">
         <v>183</v>
       </c>
@@ -3300,7 +3300,7 @@
         <v>2.9</v>
       </c>
     </row>
-    <row r="17" spans="1:57" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A17" s="25" t="s">
         <v>183</v>
       </c>
@@ -3389,7 +3389,7 @@
         <v>4.7</v>
       </c>
     </row>
-    <row r="18" spans="1:57" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A18" s="25" t="s">
         <v>183</v>
       </c>
@@ -3478,7 +3478,7 @@
         <v>4.5999999999999996</v>
       </c>
     </row>
-    <row r="19" spans="1:57" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A19" s="25" t="s">
         <v>183</v>
       </c>
@@ -3567,7 +3567,7 @@
         <v>5.4</v>
       </c>
     </row>
-    <row r="20" spans="1:57" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A20" s="25" t="s">
         <v>183</v>
       </c>
@@ -3656,7 +3656,7 @@
         <v>6.7</v>
       </c>
     </row>
-    <row r="21" spans="1:57" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A21" s="25" t="s">
         <v>183</v>
       </c>
@@ -3768,14 +3768,14 @@
       <selection activeCell="H24" sqref="H24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="17.7265625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="116.7265625" customWidth="1"/>
-    <col min="3" max="3" width="49.54296875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="17.77734375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="116.77734375" customWidth="1"/>
+    <col min="3" max="3" width="49.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>85</v>
       </c>
@@ -3786,7 +3786,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>6</v>
       </c>
@@ -3797,7 +3797,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>7</v>
       </c>
@@ -3808,7 +3808,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:3" ht="72" x14ac:dyDescent="0.3">
       <c r="A4" s="16" t="s">
         <v>8</v>
       </c>
@@ -3819,7 +3819,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>9</v>
       </c>
@@ -3830,7 +3830,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>10</v>
       </c>
@@ -3841,7 +3841,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>11</v>
       </c>
@@ -3852,7 +3852,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>12</v>
       </c>
@@ -3863,7 +3863,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>13</v>
       </c>
@@ -3874,7 +3874,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>14</v>
       </c>
@@ -3885,7 +3885,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>15</v>
       </c>
@@ -3896,7 +3896,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>16</v>
       </c>
@@ -3907,7 +3907,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>17</v>
       </c>
@@ -3918,7 +3918,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>18</v>
       </c>
@@ -3926,7 +3926,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>19</v>
       </c>
@@ -3937,7 +3937,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>20</v>
       </c>
@@ -3945,7 +3945,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>21</v>
       </c>
@@ -3956,7 +3956,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>22</v>
       </c>
@@ -3964,7 +3964,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>23</v>
       </c>
@@ -3975,7 +3975,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>24</v>
       </c>
@@ -3983,7 +3983,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>25</v>
       </c>
@@ -3994,7 +3994,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>26</v>
       </c>
@@ -4005,7 +4005,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>27</v>
       </c>
@@ -4016,7 +4016,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>28</v>
       </c>
@@ -4027,7 +4027,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>29</v>
       </c>
@@ -4038,7 +4038,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>30</v>
       </c>
@@ -4049,7 +4049,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>31</v>
       </c>
@@ -4057,7 +4057,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>32</v>
       </c>
@@ -4068,7 +4068,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>33</v>
       </c>
@@ -4079,7 +4079,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>34</v>
       </c>
@@ -4090,7 +4090,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>35</v>
       </c>
@@ -4101,7 +4101,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>36</v>
       </c>
@@ -4112,7 +4112,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>37</v>
       </c>
@@ -4123,7 +4123,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>38</v>
       </c>
@@ -4134,7 +4134,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>39</v>
       </c>
@@ -4145,7 +4145,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>40</v>
       </c>
@@ -4156,7 +4156,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>41</v>
       </c>
@@ -4164,7 +4164,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>42</v>
       </c>
@@ -4172,7 +4172,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>43</v>
       </c>
@@ -4180,7 +4180,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>44</v>
       </c>
@@ -4188,7 +4188,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>45</v>
       </c>
@@ -4196,7 +4196,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>46</v>
       </c>
@@ -4204,7 +4204,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>47</v>
       </c>
@@ -4212,7 +4212,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>48</v>
       </c>
@@ -4220,7 +4220,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>49</v>
       </c>
@@ -4228,7 +4228,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>50</v>
       </c>
@@ -4236,7 +4236,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>51</v>
       </c>
@@ -4244,7 +4244,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>52</v>
       </c>
@@ -4252,7 +4252,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>53</v>
       </c>
@@ -4260,7 +4260,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>54</v>
       </c>
@@ -4268,7 +4268,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>55</v>
       </c>
@@ -4279,7 +4279,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>56</v>
       </c>
@@ -4290,7 +4290,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>57</v>
       </c>
@@ -4301,7 +4301,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>58</v>
       </c>
@@ -4312,7 +4312,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
         <v>59</v>
       </c>
@@ -4323,7 +4323,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
         <v>60</v>
       </c>
@@ -4334,7 +4334,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
         <v>61</v>
       </c>
@@ -4345,7 +4345,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
         <v>62</v>
       </c>
@@ -4356,7 +4356,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
         <v>63</v>
       </c>
@@ -4364,7 +4364,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
         <v>64</v>
       </c>
@@ -4372,7 +4372,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
         <v>65</v>
       </c>
@@ -4380,7 +4380,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
         <v>66</v>
       </c>
@@ -4388,7 +4388,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
         <v>67</v>
       </c>
@@ -4396,7 +4396,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
         <v>68</v>
       </c>
@@ -4404,7 +4404,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
         <v>69</v>
       </c>
@@ -4412,7 +4412,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
         <v>70</v>
       </c>
@@ -4420,7 +4420,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
         <v>71</v>
       </c>
@@ -4428,7 +4428,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
         <v>72</v>
       </c>
@@ -4436,7 +4436,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
         <v>73</v>
       </c>
@@ -4444,7 +4444,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
         <v>74</v>
       </c>
@@ -4452,7 +4452,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
         <v>75</v>
       </c>
@@ -4460,7 +4460,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
         <v>76</v>
       </c>
@@ -4468,7 +4468,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
         <v>77</v>
       </c>
@@ -4479,7 +4479,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
         <v>78</v>
       </c>
@@ -4490,7 +4490,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
         <v>79</v>
       </c>
@@ -4501,7 +4501,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
         <v>80</v>
       </c>
@@ -4512,7 +4512,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
         <v>81</v>
       </c>
@@ -4523,7 +4523,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
         <v>82</v>
       </c>
@@ -4534,7 +4534,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
         <v>83</v>
       </c>
@@ -4554,21 +4554,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{081A6BD0-DB1A-406D-A526-8D337C57DAFE}">
   <dimension ref="A1:L8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="K8" sqref="K8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="9.26953125" style="25"/>
-    <col min="3" max="3" width="15.453125" customWidth="1"/>
-    <col min="5" max="5" width="13.26953125" customWidth="1"/>
-    <col min="7" max="7" width="12.26953125" customWidth="1"/>
-    <col min="9" max="9" width="14.26953125" customWidth="1"/>
-    <col min="10" max="10" width="15.26953125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.21875" style="25"/>
+    <col min="3" max="3" width="15.44140625" customWidth="1"/>
+    <col min="5" max="5" width="13.21875" customWidth="1"/>
+    <col min="7" max="7" width="12.21875" customWidth="1"/>
+    <col min="9" max="9" width="14.21875" customWidth="1"/>
+    <col min="10" max="10" width="15.21875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A1" s="37" t="s">
         <v>5</v>
       </c>
@@ -4584,7 +4584,7 @@
       <c r="K1" s="19"/>
       <c r="L1" s="19"/>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A2" s="25" t="s">
         <v>6</v>
       </c>
@@ -4618,7 +4618,7 @@
       <c r="K2" s="3"/>
       <c r="L2" s="2"/>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A3" s="25" t="s">
         <v>184</v>
       </c>
@@ -4647,7 +4647,7 @@
         <v>32.1</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A4" s="25" t="s">
         <v>184</v>
       </c>
@@ -4676,7 +4676,7 @@
         <v>32.1</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A5" s="25" t="s">
         <v>184</v>
       </c>
@@ -4705,7 +4705,7 @@
         <v>32.1</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A6" s="25" t="s">
         <v>184</v>
       </c>
@@ -4734,7 +4734,7 @@
         <v>32.1</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A7" s="25" t="s">
         <v>184</v>
       </c>
@@ -4763,7 +4763,7 @@
         <v>32.1</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A8" s="25" t="s">
         <v>184</v>
       </c>
@@ -4809,14 +4809,14 @@
       <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="17.7265625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="63.54296875" customWidth="1"/>
-    <col min="3" max="3" width="49.54296875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="17.77734375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="63.5546875" customWidth="1"/>
+    <col min="3" max="3" width="49.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>85</v>
       </c>
@@ -4827,7 +4827,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>6</v>
       </c>
@@ -4838,7 +4838,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>7</v>
       </c>
@@ -4849,7 +4849,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" s="20" t="s">
         <v>164</v>
       </c>
@@ -4860,7 +4860,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" s="20" t="s">
         <v>165</v>
       </c>
@@ -4871,7 +4871,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" s="20" t="s">
         <v>166</v>
       </c>
@@ -4882,7 +4882,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" s="21" t="s">
         <v>167</v>
       </c>
@@ -4890,7 +4890,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" s="20" t="s">
         <v>168</v>
       </c>
@@ -4901,7 +4901,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" s="20" t="s">
         <v>169</v>
       </c>
@@ -4912,7 +4912,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" s="22" t="s">
         <v>170</v>
       </c>
@@ -4934,57 +4934,6 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <Record xmlns="4ffa91fb-a0ff-4ac5-b2db-65c790d184a4">Shared</Record>
-    <Language xmlns="http://schemas.microsoft.com/sharepoint/v3">English</Language>
-    <Document_x0020_Creation_x0020_Date xmlns="4ffa91fb-a0ff-4ac5-b2db-65c790d184a4">2020-10-21T13:32:44+00:00</Document_x0020_Creation_x0020_Date>
-    <_Source xmlns="http://schemas.microsoft.com/sharepoint/v3/fields" xsi:nil="true"/>
-    <j747ac98061d40f0aa7bd47e1db5675d xmlns="4ffa91fb-a0ff-4ac5-b2db-65c790d184a4">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </j747ac98061d40f0aa7bd47e1db5675d>
-    <External_x0020_Contributor xmlns="4ffa91fb-a0ff-4ac5-b2db-65c790d184a4" xsi:nil="true"/>
-    <TaxKeywordTaxHTField xmlns="4ffa91fb-a0ff-4ac5-b2db-65c790d184a4">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </TaxKeywordTaxHTField>
-    <Rights xmlns="4ffa91fb-a0ff-4ac5-b2db-65c790d184a4" xsi:nil="true"/>
-    <EPA_x0020_Office xmlns="4ffa91fb-a0ff-4ac5-b2db-65c790d184a4" xsi:nil="true"/>
-    <CategoryDescription xmlns="http://schemas.microsoft.com/sharepoint.v3" xsi:nil="true"/>
-    <Identifier xmlns="4ffa91fb-a0ff-4ac5-b2db-65c790d184a4" xsi:nil="true"/>
-    <_Coverage xmlns="http://schemas.microsoft.com/sharepoint/v3/fields" xsi:nil="true"/>
-    <Creator xmlns="4ffa91fb-a0ff-4ac5-b2db-65c790d184a4">
-      <UserInfo>
-        <DisplayName/>
-        <AccountId xsi:nil="true"/>
-        <AccountType/>
-      </UserInfo>
-    </Creator>
-    <EPA_x0020_Related_x0020_Documents xmlns="4ffa91fb-a0ff-4ac5-b2db-65c790d184a4" xsi:nil="true"/>
-    <EPA_x0020_Contributor xmlns="4ffa91fb-a0ff-4ac5-b2db-65c790d184a4">
-      <UserInfo>
-        <DisplayName/>
-        <AccountId xsi:nil="true"/>
-        <AccountType/>
-      </UserInfo>
-    </EPA_x0020_Contributor>
-    <TaxCatchAll xmlns="4ffa91fb-a0ff-4ac5-b2db-65c790d184a4" xsi:nil="true"/>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="ed970698-2d60-4bab-a048-d9be527522d9">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101001AF5FC5DD832BE4DBA6B24560DD3ADC0" ma:contentTypeVersion="19" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="d40b3e6283001fb57e5088f84fb23d5e">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns1="http://schemas.microsoft.com/sharepoint/v3" xmlns:ns2="4ffa91fb-a0ff-4ac5-b2db-65c790d184a4" xmlns:ns3="http://schemas.microsoft.com/sharepoint.v3" xmlns:ns4="http://schemas.microsoft.com/sharepoint/v3/fields" xmlns:ns5="8b03727f-4454-4722-b3e6-018d8dcaf2fd" xmlns:ns6="ed970698-2d60-4bab-a048-d9be527522d9" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="aadbb8160917885bdc8cfb32badaafe9" ns1:_="" ns2:_="" ns3:_="" ns4:_="" ns5:_="" ns6:_="">
     <xsd:import namespace="http://schemas.microsoft.com/sharepoint/v3"/>
@@ -5455,6 +5404,57 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <Record xmlns="4ffa91fb-a0ff-4ac5-b2db-65c790d184a4">Shared</Record>
+    <Language xmlns="http://schemas.microsoft.com/sharepoint/v3">English</Language>
+    <Document_x0020_Creation_x0020_Date xmlns="4ffa91fb-a0ff-4ac5-b2db-65c790d184a4">2020-10-21T13:32:44+00:00</Document_x0020_Creation_x0020_Date>
+    <_Source xmlns="http://schemas.microsoft.com/sharepoint/v3/fields" xsi:nil="true"/>
+    <j747ac98061d40f0aa7bd47e1db5675d xmlns="4ffa91fb-a0ff-4ac5-b2db-65c790d184a4">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </j747ac98061d40f0aa7bd47e1db5675d>
+    <External_x0020_Contributor xmlns="4ffa91fb-a0ff-4ac5-b2db-65c790d184a4" xsi:nil="true"/>
+    <TaxKeywordTaxHTField xmlns="4ffa91fb-a0ff-4ac5-b2db-65c790d184a4">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </TaxKeywordTaxHTField>
+    <Rights xmlns="4ffa91fb-a0ff-4ac5-b2db-65c790d184a4" xsi:nil="true"/>
+    <EPA_x0020_Office xmlns="4ffa91fb-a0ff-4ac5-b2db-65c790d184a4" xsi:nil="true"/>
+    <CategoryDescription xmlns="http://schemas.microsoft.com/sharepoint.v3" xsi:nil="true"/>
+    <Identifier xmlns="4ffa91fb-a0ff-4ac5-b2db-65c790d184a4" xsi:nil="true"/>
+    <_Coverage xmlns="http://schemas.microsoft.com/sharepoint/v3/fields" xsi:nil="true"/>
+    <Creator xmlns="4ffa91fb-a0ff-4ac5-b2db-65c790d184a4">
+      <UserInfo>
+        <DisplayName/>
+        <AccountId xsi:nil="true"/>
+        <AccountType/>
+      </UserInfo>
+    </Creator>
+    <EPA_x0020_Related_x0020_Documents xmlns="4ffa91fb-a0ff-4ac5-b2db-65c790d184a4" xsi:nil="true"/>
+    <EPA_x0020_Contributor xmlns="4ffa91fb-a0ff-4ac5-b2db-65c790d184a4">
+      <UserInfo>
+        <DisplayName/>
+        <AccountId xsi:nil="true"/>
+        <AccountType/>
+      </UserInfo>
+    </EPA_x0020_Contributor>
+    <TaxCatchAll xmlns="4ffa91fb-a0ff-4ac5-b2db-65c790d184a4" xsi:nil="true"/>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="ed970698-2d60-4bab-a048-d9be527522d9">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{845EA28A-135D-4CD8-9991-40FEAFECD172}">
   <ds:schemaRefs>
@@ -5464,9 +5464,24 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5F4A5FCF-4499-487A-89B0-E215184C11DF}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C1E80712-978F-4ED0-8C1B-73E6BE809F4C}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
+    <ds:schemaRef ds:uri="4ffa91fb-a0ff-4ac5-b2db-65c790d184a4"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint.v3"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/fields"/>
+    <ds:schemaRef ds:uri="8b03727f-4454-4722-b3e6-018d8dcaf2fd"/>
+    <ds:schemaRef ds:uri="ed970698-2d60-4bab-a048-d9be527522d9"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -5486,5 +5501,9 @@
 </file>
 
 <file path=customXml/itemProps4.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C1E80712-978F-4ED0-8C1B-73E6BE809F4C}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5F4A5FCF-4499-487A-89B0-E215184C11DF}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>